--- a/Code/Results/Cases/Case_1_208/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_208/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9621566341230618</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4458463743328451</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10.2014332566028</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00226218817679298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.8365037704558631</v>
+      </c>
+      <c r="E3">
+        <v>0.3839303037647994</v>
+      </c>
+      <c r="F3">
+        <v>8.971073824027314</v>
+      </c>
+      <c r="G3">
+        <v>0.002292580828864888</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.7611049410719488</v>
+      </c>
+      <c r="E4">
+        <v>0.3467450935370238</v>
+      </c>
+      <c r="F4">
+        <v>8.234177258725538</v>
+      </c>
+      <c r="G4">
+        <v>0.002311849231052979</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.7307660636204218</v>
+      </c>
+      <c r="E5">
+        <v>0.3317727812345055</v>
+      </c>
+      <c r="F5">
+        <v>7.938027056214594</v>
+      </c>
+      <c r="G5">
+        <v>0.002319859200308527</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.7257501818323817</v>
+      </c>
+      <c r="E6">
+        <v>0.3292967917134604</v>
+      </c>
+      <c r="F6">
+        <v>7.889087161741088</v>
+      </c>
+      <c r="G6">
+        <v>0.002321198935316267</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.7606942824755265</v>
+      </c>
+      <c r="E7">
+        <v>0.346542474464627</v>
+      </c>
+      <c r="F7">
+        <v>8.230167166874935</v>
+      </c>
+      <c r="G7">
+        <v>0.002311956610146552</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.9184338710333577</v>
+      </c>
+      <c r="E8">
+        <v>0.4243074336792887</v>
+      </c>
+      <c r="F8">
+        <v>9.773026510490411</v>
+      </c>
+      <c r="G8">
+        <v>0.002272544830146151</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.244365504398786</v>
+      </c>
+      <c r="E9">
+        <v>0.5848117695391295</v>
+      </c>
+      <c r="F9">
+        <v>12.9719191980825</v>
+      </c>
+      <c r="G9">
+        <v>0.002199816190148418</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.498175013414425</v>
+      </c>
+      <c r="E10">
+        <v>0.709827392480662</v>
+      </c>
+      <c r="F10">
+        <v>15.46875785442171</v>
+      </c>
+      <c r="G10">
+        <v>0.002148758919994442</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.617845959707552</v>
+      </c>
+      <c r="E11">
+        <v>0.7688136130821448</v>
+      </c>
+      <c r="F11">
+        <v>16.64702618999763</v>
+      </c>
+      <c r="G11">
+        <v>0.002125945549677675</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.663873063842573</v>
+      </c>
+      <c r="E12">
+        <v>0.791509908697293</v>
+      </c>
+      <c r="F12">
+        <v>17.10032549300047</v>
+      </c>
+      <c r="G12">
+        <v>0.002117356387694613</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.653926892228469</v>
+      </c>
+      <c r="E13">
+        <v>0.7866049050619779</v>
+      </c>
+      <c r="F13">
+        <v>17.00236538135528</v>
+      </c>
+      <c r="G13">
+        <v>0.002119204169670034</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.621617751266172</v>
+      </c>
+      <c r="E14">
+        <v>0.7706733026041803</v>
+      </c>
+      <c r="F14">
+        <v>16.68417052974996</v>
+      </c>
+      <c r="G14">
+        <v>0.002125237976596115</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.601923321132745</v>
+      </c>
+      <c r="E15">
+        <v>0.7609633214938327</v>
+      </c>
+      <c r="F15">
+        <v>16.49022585936291</v>
+      </c>
+      <c r="G15">
+        <v>0.002128940032288117</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1.490447620009661</v>
+      </c>
+      <c r="E16">
+        <v>0.7060196344223328</v>
+      </c>
+      <c r="F16">
+        <v>15.39269276297057</v>
+      </c>
+      <c r="G16">
+        <v>0.002150257341313958</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.423209821040643</v>
+      </c>
+      <c r="E17">
+        <v>0.6728924088224915</v>
+      </c>
+      <c r="F17">
+        <v>14.7309412752619</v>
+      </c>
+      <c r="G17">
+        <v>0.002163434094742726</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.384925817278031</v>
+      </c>
+      <c r="E18">
+        <v>0.6540339565854794</v>
+      </c>
+      <c r="F18">
+        <v>14.35424649662446</v>
+      </c>
+      <c r="G18">
+        <v>0.002171052513275673</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1.372027423673728</v>
+      </c>
+      <c r="E19">
+        <v>0.64768081461024</v>
+      </c>
+      <c r="F19">
+        <v>14.22734992692494</v>
+      </c>
+      <c r="G19">
+        <v>0.002173639035979925</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1.430326383862791</v>
+      </c>
+      <c r="E20">
+        <v>0.6763982537081716</v>
+      </c>
+      <c r="F20">
+        <v>14.80097249927906</v>
+      </c>
+      <c r="G20">
+        <v>0.002162027384780829</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.631087546551441</v>
+      </c>
+      <c r="E21">
+        <v>0.7753425657401891</v>
+      </c>
+      <c r="F21">
+        <v>16.77743024407664</v>
+      </c>
+      <c r="G21">
+        <v>0.002123464432831214</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.766496122056083</v>
+      </c>
+      <c r="E22">
+        <v>0.8421352034684162</v>
+      </c>
+      <c r="F22">
+        <v>18.1112013327471</v>
+      </c>
+      <c r="G22">
+        <v>0.002098546010560514</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.693803338917348</v>
+      </c>
+      <c r="E23">
+        <v>0.8062718020249378</v>
+      </c>
+      <c r="F23">
+        <v>17.39512490472521</v>
+      </c>
+      <c r="G23">
+        <v>0.002111822893873867</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.427107835138884</v>
+      </c>
+      <c r="E24">
+        <v>0.6748126833686428</v>
+      </c>
+      <c r="F24">
+        <v>14.76929976168356</v>
+      </c>
+      <c r="G24">
+        <v>0.002162663223986172</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1.154007660762943</v>
+      </c>
+      <c r="E25">
+        <v>0.5403210766990441</v>
+      </c>
+      <c r="F25">
+        <v>12.08402978244391</v>
+      </c>
+      <c r="G25">
+        <v>0.002219042284665296</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
